--- a/biology/Botanique/Toxicodendron_pubescens/Toxicodendron_pubescens.xlsx
+++ b/biology/Botanique/Toxicodendron_pubescens/Toxicodendron_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toxicodendron pubescens, le sumac vénéneux, est une espèce de plantes dicotylédones de la famille des Anacardiaceae, originaire du Sud-Est des États-Unis. C'est un arbuste, parfois grimpant, pouvant atteindre un mètre de haut. Le latex, présent dans toutes les parties de la plante, contient notamment de l'urushiol, susceptible de provoquer de sévères dermatites de contact chez les personnes sensibilisées.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (26 septembre 2020)[1] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (26 septembre 2020) 
 Cotinus radicans (L.) Borkh.
 Cotinus toxicodendron (L.) Borkh.
 Philostemon toxicodendron (L.) Raf.
@@ -524,12 +538,12 @@
 Rhus radicans var. pubescens (Mill.) Farw.
 Rhus scandens Salisb.
 Rhus toxicarium Salisb.
-Rhus toxicodendron L.[2]
+Rhus toxicodendron L.
 Rhus varielobata Steud.
 Toxicodendron magnum Bertram ex Steud.
-Toxicodendron quercifolium (Michx.) Greene[2]
+Toxicodendron quercifolium (Michx.) Greene
 Toxicodendron serratum Mill.
-Toxicodendron toxicarium Gillis[2]
+Toxicodendron toxicarium Gillis
 Toxicodendron toxicodendron (L.) Britton
 Toxicodendron volubile Mill.
 </t>
@@ -560,9 +574,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, Toxicodendron pubescens est utilisé en homéopathie pour lutter contre l'inflammation due à l'arthrite, cependant cet usage n'a pas fait l'objet d'évaluation par la  Food and Drug Administration (FDA, Agence américaine des produits alimentaires et des médicaments)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, Toxicodendron pubescens est utilisé en homéopathie pour lutter contre l'inflammation due à l'arthrite, cependant cet usage n'a pas fait l'objet d'évaluation par la  Food and Drug Administration (FDA, Agence américaine des produits alimentaires et des médicaments).
 </t>
         </is>
       </c>
